--- a/kai/animosity_comparison.xlsx
+++ b/kai/animosity_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80CBCAA-4A0F-4750-9368-5B61DAC21875}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0992BA86-94C6-4573-9221-82141E626C0C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F2ED3C19-488D-4619-9BF4-76F696C0DA6D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>animosity</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>wounded</t>
-  </si>
-  <si>
-    <t>no animosity</t>
   </si>
   <si>
     <t>normal animosity</t>
@@ -100,11 +97,40 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -113,11 +139,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -375,7 +416,7 @@
                   <c:v>wait one round</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>no animosity</c:v>
+                  <c:v>normal behavior</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2697,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5892388E-809B-4834-9615-EF6AA7E5751E}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,11 +2749,10 @@
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
@@ -2727,7 +2767,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2">
         <f>B$3*E$3*I$3</f>
@@ -2892,7 +2932,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <f>5/6</f>
@@ -2911,7 +2951,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2976,13 +3016,118 @@
         <f>C9</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I19" t="s">
-        <v>11</v>
+      <c r="I19" t="str">
+        <f>Q7</f>
+        <v>normal behavior</v>
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H20" s="3">
         <f>SUM(H16:H19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f>I16</f>
+        <v>charge friend</v>
+      </c>
+      <c r="F41" s="5">
+        <f>H16</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G41" s="4">
+        <f>P2</f>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="H41" t="str">
+        <f>Q2</f>
+        <v>knocked down</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="6"/>
+      <c r="G42" s="4">
+        <f>P3</f>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="H42" t="str">
+        <f>Q3</f>
+        <v>stunned</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="6"/>
+      <c r="G43" s="4">
+        <f>P4</f>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="H43" t="str">
+        <f>Q4</f>
+        <v>ooa</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <f>I17</f>
+        <v>moved to/charge next foe</v>
+      </c>
+      <c r="F44" s="5">
+        <f>H17</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G44" s="4">
+        <f>P6</f>
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="H44" t="str">
+        <f>Q6</f>
+        <v>moved to/charge next foe</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f>I18</f>
+        <v>wait one round</v>
+      </c>
+      <c r="F45" s="5">
+        <f>H18</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G45" s="4">
+        <f>P5</f>
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="H45" t="str">
+        <f>Q5</f>
+        <v>wait one round</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <f>I19</f>
+        <v>normal behavior</v>
+      </c>
+      <c r="F46" s="5">
+        <f>H19</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G46" s="4">
+        <f>P7</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H46" t="str">
+        <f>Q7</f>
+        <v>normal behavior</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="7">
+        <f>SUM(F41:F46)</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="8">
+        <f>SUM(G41:G46)</f>
         <v>1</v>
       </c>
     </row>

--- a/kai/animosity_comparison.xlsx
+++ b/kai/animosity_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0992BA86-94C6-4573-9221-82141E626C0C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD4D14D-AE2D-4573-ACAC-8DC2751B342D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F2ED3C19-488D-4619-9BF4-76F696C0DA6D}"/>
   </bookViews>
@@ -272,6 +272,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F47B-45C3-A7EA-4811E926D664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -291,6 +296,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F47B-45C3-A7EA-4811E926D664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -310,6 +320,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F47B-45C3-A7EA-4811E926D664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -329,6 +344,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F47B-45C3-A7EA-4811E926D664}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -599,7 +619,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Animosity</a:t>
+              <a:t>Animosity Oi Behave!</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -731,6 +751,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E72E-4E8E-BC63-9C656E4A8DC4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -750,6 +775,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E72E-4E8E-BC63-9C656E4A8DC4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -769,6 +799,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-E72E-4E8E-BC63-9C656E4A8DC4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -2368,16 +2403,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2740,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5892388E-809B-4834-9615-EF6AA7E5751E}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3037,33 +3072,33 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="G41" s="4">
-        <f>P2</f>
+        <f t="shared" ref="G41:H43" si="0">P2</f>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="H41" t="str">
-        <f>Q2</f>
+        <f t="shared" si="0"/>
         <v>knocked down</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F42" s="6"/>
       <c r="G42" s="4">
-        <f>P3</f>
+        <f t="shared" si="0"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="H42" t="str">
-        <f>Q3</f>
+        <f t="shared" si="0"/>
         <v>stunned</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F43" s="6"/>
       <c r="G43" s="4">
-        <f>P4</f>
+        <f t="shared" si="0"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="H43" t="str">
-        <f>Q4</f>
+        <f t="shared" si="0"/>
         <v>ooa</v>
       </c>
     </row>
